--- a/TestData/TestData.xlsx
+++ b/TestData/TestData.xlsx
@@ -3,12 +3,12 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
   <workbookPr/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\anooas\eclipse-workspace\Selenium_POC\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F632F5E-FEF2-47D5-BCD0-ED73762255FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1107F85-1724-409C-951E-F0269654BAB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>TestName</t>
   </si>
@@ -51,32 +51,23 @@
     <t>Create Quote</t>
   </si>
   <si>
-    <t>DOB</t>
-  </si>
-  <si>
-    <t>SSS</t>
-  </si>
-  <si>
-    <t>AAA</t>
-  </si>
-  <si>
-    <t>sss@gmail.com</t>
+    <t>ABC</t>
+  </si>
+  <si>
+    <t>XYZ</t>
+  </si>
+  <si>
+    <t>abctest@gmail.com</t>
   </si>
   <si>
     <t>600098</t>
-  </si>
-  <si>
-    <t>Quote No : 20400098034210622</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="dd/mm/yyyy;@"/>
-  </numFmts>
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -129,11 +120,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="1" quotePrefix="1" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -415,24 +405,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="11.90625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="6.453125" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="6.36328125" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="11.54296875" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="13.90625" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="13.90625" collapsed="false"/>
-    <col min="7" max="8" bestFit="true" customWidth="true" width="27.6328125" collapsed="true"/>
+    <col min="1" max="1" width="11.90625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="6.453125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="6.36328125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="11.54296875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="17.36328125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="7" width="27.6328125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -449,41 +438,35 @@
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>9</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>10</v>
       </c>
       <c r="D2" s="1">
         <v>9110583464</v>
       </c>
       <c r="E2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>11</v>
-      </c>
-      <c r="F2" s="3">
-        <v>34700</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>13</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E2" r:id="rId3" xr:uid="{63A58469-0506-47CF-B5E1-F45AAEA4BDE4}"/>
+    <hyperlink ref="E2" r:id="rId1" xr:uid="{63A58469-0506-47CF-B5E1-F45AAEA4BDE4}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>

--- a/TestData/TestData.xlsx
+++ b/TestData/TestData.xlsx
@@ -3,21 +3,22 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\anooas\eclipse-workspace\Selenium_POC\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1107F85-1724-409C-951E-F0269654BAB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C23FD59-F8C7-4BD1-A373-E7B3ED7BDCCA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>TestName</t>
   </si>
@@ -61,12 +62,28 @@
   </si>
   <si>
     <t>600098</t>
+  </si>
+  <si>
+    <t>Keywords for PDF Validation</t>
+  </si>
+  <si>
+    <t>Implementation</t>
+  </si>
+  <si>
+    <t>Acknowledgments</t>
+  </si>
+  <si>
+    <t>Please include a section at the end of your paper</t>
+  </si>
+  <si>
+    <t>20400105309050722</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -413,12 +430,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="11.90625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="6.453125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="6.36328125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="11.54296875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="17.36328125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="7" width="27.6328125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="11.90625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="6.453125" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="6.36328125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="11.54296875" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="17.36328125" collapsed="true"/>
+    <col min="6" max="7" bestFit="true" customWidth="true" width="27.6328125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.35">
@@ -462,6 +479,9 @@
       </c>
       <c r="F2" s="1" t="s">
         <v>11</v>
+      </c>
+      <c r="G2" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -471,4 +491,43 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED930A3F-6EB2-452B-B169-E317CBFF461A}">
+  <dimension ref="A1:A4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="74.54296875" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A3" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>